--- a/WebRoot/static/template/budget/銷售收入預測表_下载.xlsx
+++ b/WebRoot/static/template/budget/銷售收入預測表_下载.xlsx
@@ -123,7 +123,7 @@
     <t>報告幣種</t>
   </si>
   <si>
-    <t>Main Business</t>
+    <t>三大技術</t>
   </si>
 </sst>
 </file>
@@ -652,10 +652,13 @@
       <pane xSplit="15" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA8" sqref="BA8"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="10" t="s">
@@ -864,10 +867,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>21</v>

--- a/WebRoot/static/template/budget/銷售收入預測表_下载.xlsx
+++ b/WebRoot/static/template/budget/銷售收入預測表_下载.xlsx
@@ -93,9 +93,6 @@
     <t>產品系列</t>
   </si>
   <si>
-    <t>机种</t>
-  </si>
-  <si>
     <t xml:space="preserve">PM </t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>三大技術</t>
+  </si>
+  <si>
+    <t>機種</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
       <c r="P2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="5" t="s">
@@ -847,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:54" s="1" customFormat="1" ht="15" customHeight="1">
@@ -858,10 +858,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -870,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>21</v>
@@ -879,25 +879,25 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="P3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>17</v>
@@ -917,7 +917,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -931,7 +931,7 @@
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
